--- a/report/reliability/comb/Centro de Educação - CEDU-Mestrado.xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Mestrado.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="482">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2232,11 +2232,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3142,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="804">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3797,6 +3792,7 @@
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3824,14 +3820,13 @@
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3840,6 +3835,7 @@
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3855,14 +3851,13 @@
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3870,6 +3865,7 @@
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3885,20 +3881,20 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3914,19 +3910,19 @@
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3954,14 +3950,13 @@
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3970,6 +3965,7 @@
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3985,14 +3981,13 @@
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4000,6 +3995,7 @@
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4015,20 +4011,20 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4044,21 +4040,19 @@
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4134,28 +4128,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7609529897302149</v>
+        <v>0.7211604439608874</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7866090184934162</v>
+        <v>0.7271499701620485</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9353779334727205</v>
+        <v>0.9083232783208716</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23499800773772428</v>
+        <v>0.18172614505513232</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.6862336587038347</v>
+        <v>2.6650170080388507</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.0510135422764944</v>
+        <v>0.057367860297253104</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>3.0471014492753623</v>
+        <v>2.5307971014492754</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7400892868041649</v>
+        <v>0.6623374936150013</v>
       </c>
       <c r="I6" t="n" s="39">
         <v>0.1992625224212263</v>
@@ -4208,28 +4202,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7417567264650142</v>
+        <v>0.7033399482022132</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7609328979813559</v>
+        <v>0.7061390190154616</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9242574964496127</v>
+        <v>0.8939523901331456</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22441955986031184</v>
+        <v>0.17928636069770573</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.18292601347555</v>
+        <v>2.4029696513284815</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.05571980194935669</v>
+        <v>0.06193073085607661</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.09606804685707034</v>
+        <v>0.14704986337858406</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.14366933423021222</v>
+        <v>0.17160090457581295</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4231,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7382452772445262</v>
+        <v>0.7058164503781159</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7613894054716266</v>
+        <v>0.7105434639466758</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9106860259633767</v>
+        <v>0.8917462706228519</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22485693530413942</v>
+        <v>0.1824448682122999</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.190928747219097</v>
+        <v>2.4547501107930687</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05623164147669859</v>
+        <v>0.061454255466676995</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.0916046189903613</v>
+        <v>0.15022127229276908</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.22692414026663965</v>
+        <v>0.2552659272248996</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4260,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7368649057873486</v>
+        <v>0.6945341625360812</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7601650238166308</v>
+        <v>0.6702290785353502</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9145558195519551</v>
+        <v>0.8848963073281659</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.22368651760154867</v>
+        <v>0.1559503086554168</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.169533634808278</v>
+        <v>2.0324080593843274</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.056240417878609124</v>
+        <v>0.0640808250144994</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.095063512263143</v>
+        <v>0.12711669032246745</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.22692414026663965</v>
+        <v>0.12918243238371246</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7301876416111222</v>
+        <v>0.6485816554809845</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7561982539725024</v>
+        <v>0.6720076790722275</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9034990158187707</v>
+        <v>0.8830965813796605</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.21995183640283797</v>
+        <v>0.15701395707649493</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.101693348361881</v>
+        <v>2.048851866932002</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.05753863181578631</v>
+        <v>0.0760005805572799</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.09180550144885177</v>
+        <v>0.11815756075376774</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17160090457581295</v>
+        <v>0.12918243238371246</v>
       </c>
     </row>
     <row r="15">
@@ -4324,25 +4318,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7077729854379299</v>
+        <v>0.6384986698445946</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7496919740930398</v>
+        <v>0.6613537454892195</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9148450010278147</v>
+        <v>0.8719000817819789</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21400936280350974</v>
+        <v>0.15077154738886883</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.9950776503335166</v>
+        <v>1.9529338850790865</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06506028488380236</v>
+        <v>0.07967374200428455</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.08587303591789658</v>
+        <v>0.1177616125831216</v>
       </c>
       <c r="I15" t="n" s="65">
         <v>0.12918243238371246</v>
@@ -4353,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7017145034290069</v>
+        <v>0.7344335461885843</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7447650157163784</v>
+        <v>0.7811280049720848</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9091466788543027</v>
+        <v>0.9204939713638154</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.20965418628975857</v>
+        <v>0.2449660105471796</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.9179582015637116</v>
+        <v>3.568880545327229</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.0675021819310061</v>
+        <v>0.05577970693943022</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.08533193878356121</v>
+        <v>0.10869174766388993</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.12918243238371246</v>
+        <v>0.3136389222958715</v>
       </c>
     </row>
     <row r="17">
@@ -4382,25 +4376,25 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7914960610166091</v>
+        <v>0.756432492891294</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.815201277949527</v>
+        <v>0.7524855565481948</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9201618896697226</v>
+        <v>0.8955070416534661</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28623768817510836</v>
+        <v>0.21653360622191026</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.411292832029839</v>
+        <v>3.0401682667650674</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04147957111000054</v>
+        <v>0.04456721424927572</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.07455199069936266</v>
+        <v>0.12520310426878206</v>
       </c>
       <c r="I17" t="n" s="65">
         <v>0.3136389222958715</v>
@@ -4411,25 +4405,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7966930368469818</v>
+        <v>0.7584158743830126</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.809568067692924</v>
+        <v>0.740583109345808</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9203737000302978</v>
+        <v>0.8943043844647272</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2787462319525393</v>
+        <v>0.20605128156271033</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.251220149294481</v>
+        <v>2.8547991130347032</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03930749072176834</v>
+        <v>0.0420037055042188</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.08160053633067998</v>
+        <v>0.13476387650941019</v>
       </c>
       <c r="I18" t="n" s="65">
         <v>0.3136389222958715</v>
@@ -4440,28 +4434,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.739190534677355</v>
+        <v>0.6824568050924522</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7731688973746498</v>
+        <v>0.6950562021387306</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9356813401560683</v>
+        <v>0.8996101762993398</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.23656527520299706</v>
+        <v>0.17164263431362672</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.4085664991527556</v>
+        <v>2.2792927976024555</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05692325526162876</v>
+        <v>0.06704665043520916</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.10181743025963992</v>
+        <v>0.14846590553395295</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.17160090457581295</v>
+        <v>0.13632947327406816</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4463,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7287041138773221</v>
+        <v>0.6719701392544384</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7627468710265068</v>
+        <v>0.6837029232054512</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9352566108678586</v>
+        <v>0.9009433246046421</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2261645053814921</v>
+        <v>0.16423438004174903</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.214907530731548</v>
+        <v>2.1615847042732907</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05856598513166616</v>
+        <v>0.0684592961077852</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.10433420212850576</v>
+        <v>0.14928988479679672</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.14366933423021222</v>
+        <v>0.13632947327406816</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7454133405493167</v>
+        <v>0.6963927872976489</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7694664815460502</v>
+        <v>0.6973762937558736</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9134455143568913</v>
+        <v>0.8830028917697675</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2327952956617479</v>
+        <v>0.1732079564468137</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.3377640123935173</v>
+        <v>2.3044337881226675</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.05502357882101904</v>
+        <v>0.0630998970914437</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.09620850784512877</v>
+        <v>0.13999088790281566</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.17160090457581295</v>
+        <v>0.12918243238371246</v>
       </c>
     </row>
     <row r="22">
@@ -4527,28 +4521,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7511530132924678</v>
+        <v>0.7016278990566359</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7791961923152053</v>
+        <v>0.7051840475882915</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9162576495500894</v>
+        <v>0.8840590753185287</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24288869821670045</v>
+        <v>0.178610829496812</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.528907406467987</v>
+        <v>2.391946710548099</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05408375802801138</v>
+        <v>0.06224302921209834</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.09440006593060658</v>
+        <v>0.14182441582798708</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.22692414026663965</v>
+        <v>0.17160090457581295</v>
       </c>
     </row>
     <row r="23">
@@ -4598,16 +4592,16 @@
         <v>46.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5708621232576118</v>
+        <v>0.4843156752055034</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.6352841512799715</v>
+        <v>0.5222840904317365</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.6048478749164495</v>
+        <v>0.47936751493508173</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5023793059222946</v>
+        <v>0.39793048357687083</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.8043478260869565</v>
@@ -4624,16 +4618,16 @@
         <v>46.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5831538395124033</v>
+        <v>0.4539185411243168</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6316165407574071</v>
+        <v>0.4933262182894904</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6288101624978516</v>
+        <v>0.4518333869159828</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5005789682696293</v>
+        <v>0.34469780164162744</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.086956521739131</v>
@@ -4650,22 +4644,22 @@
         <v>46.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5924162193179132</v>
+        <v>0.755268154035041</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6414310750262991</v>
+        <v>0.736234004504437</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.633909141544184</v>
+        <v>0.7486331022139383</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5071276103208844</v>
+        <v>0.7261411880813593</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.6956521739130435</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0513391506368608</v>
+        <v>0.5012062743707415</v>
       </c>
     </row>
     <row r="30">
@@ -4676,22 +4670,22 @@
         <v>46.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6333794398830807</v>
+        <v>0.7754520839475466</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6727482334450398</v>
+        <v>0.7264822483855854</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6785398952694118</v>
+        <v>0.7434366415010767</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5320632628189058</v>
+        <v>0.6456478444003684</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.9347826086956523</v>
+        <v>1.8478260869565217</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3064315079728268</v>
+        <v>1.9202707136043526</v>
       </c>
     </row>
     <row r="31">
@@ -4702,22 +4696,22 @@
         <v>46.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7622251096367586</v>
+        <v>0.8122455501409059</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.7225788286705682</v>
+        <v>0.7837139949489685</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7280690945919988</v>
+        <v>0.8123286375109187</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.6447570883462673</v>
+        <v>0.6814705069425123</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.8478260869565217</v>
+        <v>2.217391304347826</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.9202707136043526</v>
+        <v>2.1386708590800647</v>
       </c>
     </row>
     <row r="32">
@@ -4728,22 +4722,22 @@
         <v>46.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7948228805973022</v>
+        <v>-0.14601649647257822</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.7590991487637021</v>
+        <v>-0.07988098085603226</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7689970319359166</v>
+        <v>-0.14949966334549109</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6742281888517753</v>
+        <v>-0.18751721883058153</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.217391304347826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.1386708590800647</v>
+        <v>0.34050261230349943</v>
       </c>
     </row>
     <row r="33">
@@ -4754,16 +4748,16 @@
         <v>46.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.1540200626755205</v>
+        <v>0.17153382406987924</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.11690841461659808</v>
+        <v>0.18079338048186736</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.09766999477494757</v>
+        <v>0.16412950138405746</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>-0.015248957705443043</v>
+        <v>-0.01766341635851141</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.5217391304347827</v>
@@ -4780,16 +4774,16 @@
         <v>46.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.23594123222397997</v>
+        <v>0.28188150425002234</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.17972799916112303</v>
+        <v>0.2768975739441479</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.16057212192269257</v>
+        <v>0.2620022450207967</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.032382526774317084</v>
+        <v>0.055595749075107274</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>2.760869565217391</v>
@@ -4806,16 +4800,16 @@
         <v>46.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5679860790775475</v>
+        <v>0.6246074895554091</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.533436290309372</v>
+        <v>0.5923634080517588</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4689186787817547</v>
+        <v>0.5309661225815456</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.44297801343015386</v>
+        <v>0.4945418590639116</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>2.760869565217391</v>
@@ -4832,16 +4826,16 @@
         <v>46.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6437048957561544</v>
+        <v>0.6840003546108042</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6206519156455779</v>
+        <v>0.6602838670061983</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.559674618089215</v>
+        <v>0.5989976129808534</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.542262180695919</v>
+        <v>0.5779377911959928</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.9130434782608696</v>
@@ -4858,16 +4852,16 @@
         <v>46.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5108209302249477</v>
+        <v>0.5456689447242036</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5650494428776475</v>
+        <v>0.5780122000888802</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5506424793294161</v>
+        <v>0.563346176901326</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.42860470872614237</v>
+        <v>0.45702026457087863</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>3.0869565217391304</v>
@@ -4884,16 +4878,16 @@
         <v>46.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4383935261672762</v>
+        <v>0.4941110383731351</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.4804112448684856</v>
+        <v>0.5284775049014474</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.46282687301381115</v>
+        <v>0.5118534894580553</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.3481856770009292</v>
+        <v>0.3980839368919342</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.9347826086956523</v>
@@ -4998,22 +4992,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.021739130434782608</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.043478260869565216</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2608695652173913</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.17391304347826086</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5024,22 +5018,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.021739130434782608</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.043478260869565216</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="D46" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.391304347826087</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5434782608695652</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5053,19 +5047,19 @@
         <v>0.43478260869565216</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E47" t="n" s="112">
         <v>0.10869565217391304</v>
       </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="112">
-        <v>0.1956521739130435</v>
-      </c>
       <c r="F47" t="n" s="113">
-        <v>0.15217391304347827</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.10869565217391304</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5076,22 +5070,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.43478260869565216</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.08695652173913043</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.10869565217391304</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.13043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.2391304347826087</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5329,31 +5323,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8868212615707606</v>
+        <v>0.8534527041902107</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8903568045576723</v>
+        <v>0.9643873102272591</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9150941668952209</v>
+        <v>0.9556975728813121</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6699804216252886</v>
+        <v>0.9002655544218401</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>8.120493031653755</v>
+        <v>27.07987844730093</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.025310267083604045</v>
+        <v>0.009507804672212903</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.880434782608696</v>
+        <v>1.5434782608695652</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.918542218280295</v>
+        <v>1.4813385599337303</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6346944986144492</v>
+        <v>0.919389143185406</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8983746012456326</v>
+        <v>0.9598248228460204</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.9007537346509327</v>
+        <v>0.9627156972781261</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8941785054770381</v>
+        <v>0.9281116997065542</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.7515722556286889</v>
+        <v>0.9281116997065542</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>9.075945895624553</v>
+        <v>25.820938759659935</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.02388925114430888</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.014405230077350875</v>
-      </c>
+        <v>0.011378549864431046</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.8150260845513165</v>
+        <v>0.9281116997065543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8376125577999513</v>
+        <v>0.5800398066533976</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8450672916931522</v>
+        <v>0.9580018168276117</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8187584214272998</v>
+        <v>0.919389143185406</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6451558159905056</v>
+        <v>0.919389143185406</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.454415022678604</v>
+        <v>22.810553801704717</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.037568545191513245</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.025947717058022693</v>
-      </c>
+        <v>0.023711654670260925</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5901024035327128</v>
+        <v>0.919389143185406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8424479166666666</v>
+        <v>0.5885917077815286</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8553173819247796</v>
+        <v>0.9208414663143902</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.83309164340621</v>
+        <v>0.8532958203735599</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6633631479614227</v>
+        <v>0.8532958203735599</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.9116802923769365</v>
+        <v>11.63287675301887</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03721932323118852</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.021972923849475207</v>
-      </c>
+        <v>0.034014629306250675</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6562462276033764</v>
+        <v>0.8532958203735599</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8244026907909998</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.830255764461872</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7669176804927479</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6198304669205371</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.891216257387309</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.04404577201229729</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.0011272953370050369</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6131427696255219</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5484,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>46.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9239472388954295</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9565764818899941</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9238940341771769</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9044767796133127</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.5012062743707415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>46.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7600003772698475</v>
+        <v>0.974990569564647</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7969152998134496</v>
+        <v>0.9595857644228992</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7024923986648975</v>
+        <v>0.9326593301265513</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6342891065930373</v>
+        <v>0.9254539132372501</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.8043478260869565</v>
+        <v>1.8478260869565217</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8331883931925148</v>
+        <v>1.9202707136043526</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>46.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8881991868895075</v>
+        <v>0.9859776602608669</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8889223216400063</v>
+        <v>0.9823879648325062</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8639985794834041</v>
+        <v>0.9770631147741206</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.8006811410344178</v>
+        <v>0.9494513955894942</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.086956521739131</v>
+        <v>2.217391304347826</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0072203103706698</v>
+        <v>2.1386708590800647</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>46.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8819419636634404</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8731803705303165</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8425379042054805</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7842481183521329</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.6956521739130435</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0513391506368608</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>46.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9331625858985442</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.9108184680678341</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.9102359122566919</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8490138349004942</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.9347826086956523</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3064315079728268</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.021739130434782608</v>
-      </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.32608695652173914</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.45652173913043476</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.1956521739130435</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5434782608695652</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5876,31 +5783,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.9307345210959668</v>
+        <v>0.7861112237861518</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.9396615380765037</v>
+        <v>0.881721990753552</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.886190185322449</v>
+        <v>0.8667599704129076</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.886190185322449</v>
+        <v>0.7130465402029964</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>15.573176844777867</v>
+        <v>7.4546570099634195</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.01888256505619</v>
+        <v>0.019593096368408208</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.641304347826087</v>
+        <v>2.050724637681159</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.61129017828799</v>
+        <v>1.1503459303738348</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.8861901853224489</v>
+        <v>0.6575642519946512</v>
       </c>
     </row>
     <row r="7">
@@ -5947,53 +5854,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.8861901853224489</v>
+        <v>0.9307345210959668</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.8861901853224489</v>
+        <v>0.9396615380765037</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.7853330445618365</v>
+        <v>0.886190185322449</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.8861901853224489</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.8861901853224489</v>
-      </c>
+        <v>0.886190185322449</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>15.573176844777867</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.01888256505619</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.8861901853224489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="283">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n" s="288">
+        <v>0.35487251135172904</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.746384245669603</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.595385183291889</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.595385183291889</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.942972717291269</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.056711595208089244</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.5953851832918892</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.7853330445618365</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.8861901853224489</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.7853330445618365</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.8861901853224489</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.4419047619047618</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7934102719739073</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6575642519946512</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6575642519946512</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.8405117212492668</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.0557686925465457</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6575642519946512</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +5939,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>46.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9653218180764935</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9711308318971366</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.9141999862951995</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.8861901853224489</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.5217391304347827</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.5016898693698764</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>46.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9764147710321489</v>
+        <v>0.6980671113614125</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9711308318971366</v>
+        <v>0.8350973156482178</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.9141999862951994</v>
+        <v>0.6712991464847072</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.8861901853224488</v>
+        <v>0.6418934955408266</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.34050261230349943</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>46.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9662975823818459</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9428895602362142</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9377176491921232</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8998823211105922</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.5217391304347827</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.5016898693698764</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>46.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9705211805716213</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9198417400987957</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.9026601540471932</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8790273128881164</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.760869565217391</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.8157922373651019</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="339">
         <v>0.13043478260869565</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="340">
         <v>0.1956521739130435</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.043478260869565216</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.32608695652173914</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2608695652173913</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.043478260869565216</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="339">
         <v>0.13043478260869565</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1956521739130435</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.15217391304347827</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.06521739130434782</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.21739130434782608</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2391304347826087</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6249,31 +6243,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.899734084154544</v>
+        <v>0.7839092315626612</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.899790293772488</v>
+        <v>0.7924500797843068</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8178352623862606</v>
+        <v>0.6562462276033764</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8178352623862606</v>
+        <v>0.6562462276033765</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.979073261921762</v>
+        <v>3.818117968731402</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.0295566702066711</v>
+        <v>0.061776647680870087</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>3.010869565217391</v>
+        <v>3.9456521739130435</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>0.8786930347256443</v>
+        <v>0.8381743445632645</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8178352623862606</v>
+        <v>0.6562462276033764</v>
       </c>
     </row>
     <row r="7">
@@ -6320,48 +6314,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8178352623862607</v>
+        <v>0.6562462276033764</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8178352623862607</v>
+        <v>0.6562462276033764</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6688545164024038</v>
+        <v>0.4306591112436625</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8178352623862607</v>
+        <v>0.6562462276033764</v>
       </c>
       <c r="F11" s="407"/>
       <c r="G11" s="408"/>
       <c r="H11" t="n" s="409">
-        <v>0.8178352623862607</v>
+        <v>0.6562462276033764</v>
       </c>
       <c r="I11" t="n" s="410">
-        <v>0.8178352623862607</v>
+        <v>0.6562462276033764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6688545164024038</v>
+        <v>0.4306591112436625</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8178352623862607</v>
+        <v>0.6562462276033764</v>
       </c>
       <c r="D12" s="405"/>
       <c r="E12" s="406"/>
       <c r="F12" s="407"/>
       <c r="G12" s="408"/>
       <c r="H12" t="n" s="409">
-        <v>0.6688545164024038</v>
+        <v>0.4306591112436625</v>
       </c>
       <c r="I12" t="n" s="410">
-        <v>0.8178352623862607</v>
+        <v>0.6562462276033764</v>
       </c>
     </row>
     <row r="13">
@@ -6405,54 +6399,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="424">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n" s="429">
         <v>46.0</v>
       </c>
       <c r="C17" t="n" s="430">
-        <v>0.9526491102175192</v>
+        <v>0.8913258511970538</v>
       </c>
       <c r="D17" t="n" s="431">
-        <v>0.9533717172190133</v>
+        <v>0.9100126998024194</v>
       </c>
       <c r="E17" t="n" s="432">
-        <v>0.8621745121460807</v>
+        <v>0.7371924236069708</v>
       </c>
       <c r="F17" t="n" s="433">
-        <v>0.8178352623862608</v>
+        <v>0.6562462276033761</v>
       </c>
       <c r="G17" t="n" s="434">
-        <v>3.0869565217391304</v>
+        <v>3.8043478260869565</v>
       </c>
       <c r="H17" t="n" s="435">
-        <v>0.914721255818083</v>
+        <v>0.8331883931925148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>46.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.954088899635391</v>
+        <v>0.9270130136802835</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9533717172190134</v>
+        <v>0.9100126998024194</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8621745121460807</v>
+        <v>0.7371924236069706</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8178352623862608</v>
+        <v>0.6562462276033763</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.9347826086956523</v>
+        <v>4.086956521739131</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>0.928611242975073</v>
+        <v>1.0072203103706698</v>
       </c>
     </row>
     <row r="19">
@@ -6473,19 +6467,19 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="453">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="453">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="453">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="453">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="453">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="453">
         <v>43</v>
@@ -6493,22 +6487,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="449">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n" s="454">
         <v>0.021739130434782608</v>
       </c>
       <c r="C23" t="n" s="455">
-        <v>0.021739130434782608</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="456">
-        <v>0.17391304347826086</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="E23" t="n" s="457">
-        <v>0.41304347826086957</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="F23" t="n" s="458">
-        <v>0.3695652173913043</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="G23" t="n" s="459">
         <v>0.0</v>
@@ -6516,22 +6510,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="449">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="454">
-        <v>0.021739130434782608</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n" s="455">
-        <v>0.021739130434782608</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="D24" t="n" s="456">
-        <v>0.2608695652173913</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="E24" t="n" s="457">
-        <v>0.391304347826087</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F24" t="n" s="458">
-        <v>0.30434782608695654</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="n" s="459">
         <v>0.0</v>
@@ -6613,31 +6607,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9598248228460204</v>
+        <v>0.6020669552159703</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9627156972781261</v>
+        <v>0.6032207449684672</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027024</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>25.820938759659935</v>
+        <v>1.5202930529231633</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.011378549864431046</v>
+        <v>0.1169496923905672</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>2.032608695652174</v>
+        <v>2.8369565217391304</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.9927707509145358</v>
+        <v>1.1693034385483376</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9281116997065543</v>
+        <v>0.4318654811027025</v>
       </c>
     </row>
     <row r="7">
@@ -6684,48 +6678,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.8613913271321889</v>
+        <v>0.18650779376806859</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.8613913271321889</v>
+        <v>0.18650779376806859</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.8613913271321889</v>
+        <v>0.18650779376806859</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9281116997065542</v>
+        <v>0.4318654811027025</v>
       </c>
     </row>
     <row r="13">
@@ -6769,54 +6763,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>46.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9798407965255985</v>
+        <v>0.8583217580219019</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9818634578459865</v>
+        <v>0.8461280875561048</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9459130580657884</v>
+        <v>0.5560455353974039</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9281116997065542</v>
+        <v>0.43186548110270245</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.8478260869565217</v>
+        <v>2.760869565217391</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.9202707136043526</v>
+        <v>1.4327096722054047</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>46.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9837801395822158</v>
+        <v>0.8334746194835515</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9818634578459864</v>
+        <v>0.8461280875561048</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9459130580657884</v>
+        <v>0.5560455353974039</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.928111699706554</v>
+        <v>0.43186548110270245</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>2.217391304347826</v>
+        <v>2.9130434782608696</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.1386708590800647</v>
+        <v>1.3304316251422859</v>
       </c>
     </row>
     <row r="19">
@@ -6852,61 +6846,52 @@
         <v>41</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="567">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.43478260869565216</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.10869565217391304</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.0</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.1956521739130435</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.15217391304347827</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G23" t="n" s="573">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="H23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.43478260869565216</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.0</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.08695652173913043</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.10869565217391304</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.13043478260869565</v>
+        <v>0.41304347826086957</v>
       </c>
       <c r="G24" t="n" s="573">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="H24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6936,7 +6921,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="576">
+      <c r="A1" t="s" s="575">
         <v>48</v>
       </c>
     </row>
@@ -6951,66 +6936,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="590">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="604">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="604">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="604">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="604">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="604">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="604">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="604">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="604">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="604">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="605">
-        <v>0.6020669552159703</v>
-      </c>
-      <c r="B6" t="n" s="606">
-        <v>0.6032207449684672</v>
-      </c>
-      <c r="C6" t="n" s="607">
-        <v>0.4318654811027024</v>
-      </c>
-      <c r="D6" t="n" s="608">
-        <v>0.4318654811027025</v>
-      </c>
-      <c r="E6" t="n" s="609">
-        <v>1.5202930529231633</v>
-      </c>
-      <c r="F6" t="n" s="610">
-        <v>0.1169496923905672</v>
-      </c>
-      <c r="G6" t="n" s="611">
-        <v>2.8369565217391304</v>
-      </c>
-      <c r="H6" t="n" s="612">
-        <v>1.1693034385483376</v>
-      </c>
-      <c r="I6" t="n" s="613">
-        <v>0.4318654811027025</v>
+      <c r="A6" t="n" s="604">
+        <v>0.899734084154544</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.899790293772488</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.8178352623862606</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.8178352623862606</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>8.979073261921762</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.0295566702066711</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>3.010869565217391</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>0.8786930347256443</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.8178352623862606</v>
       </c>
     </row>
     <row r="7">
@@ -7024,81 +7009,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="617">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="631">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="631">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="631">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="631">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="631">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="631">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="631">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="631">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="627">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="632">
-        <v>0.4318654811027025</v>
-      </c>
-      <c r="C11" t="n" s="633">
-        <v>0.4318654811027025</v>
-      </c>
-      <c r="D11" t="n" s="634">
-        <v>0.18650779376806859</v>
-      </c>
-      <c r="E11" t="n" s="635">
-        <v>0.4318654811027025</v>
-      </c>
-      <c r="F11" s="636"/>
-      <c r="G11" s="637"/>
-      <c r="H11" t="n" s="638">
-        <v>0.4318654811027025</v>
-      </c>
-      <c r="I11" t="n" s="639">
-        <v>0.4318654811027025</v>
+      <c r="A11" t="s" s="626">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.8178352623862607</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.8178352623862607</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.6688545164024038</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.8178352623862607</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.8178352623862607</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.8178352623862607</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="627">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="632">
-        <v>0.18650779376806859</v>
-      </c>
-      <c r="C12" t="n" s="633">
-        <v>0.4318654811027025</v>
-      </c>
-      <c r="D12" s="634"/>
-      <c r="E12" s="635"/>
-      <c r="F12" s="636"/>
-      <c r="G12" s="637"/>
-      <c r="H12" t="n" s="638">
-        <v>0.18650779376806859</v>
-      </c>
-      <c r="I12" t="n" s="639">
-        <v>0.4318654811027025</v>
+      <c r="A12" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.6688545164024038</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.8178352623862607</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.6688545164024038</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.8178352623862607</v>
       </c>
     </row>
     <row r="13">
@@ -7112,84 +7097,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="643">
+      <c r="A15" t="s" s="642">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="657">
+      <c r="B16" t="s" s="656">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="657">
+      <c r="C16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="657">
+      <c r="D16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="657">
+      <c r="E16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="657">
+      <c r="F16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="657">
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="657">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="653">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="658">
+      <c r="A17" t="s" s="652">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>46.0</v>
       </c>
-      <c r="C17" t="n" s="659">
-        <v>0.8583217580219019</v>
-      </c>
-      <c r="D17" t="n" s="660">
-        <v>0.8461280875561048</v>
-      </c>
-      <c r="E17" t="n" s="661">
-        <v>0.5560455353974039</v>
-      </c>
-      <c r="F17" t="n" s="662">
-        <v>0.43186548110270245</v>
-      </c>
-      <c r="G17" t="n" s="663">
-        <v>2.760869565217391</v>
-      </c>
-      <c r="H17" t="n" s="664">
-        <v>1.4327096722054047</v>
+      <c r="C17" t="n" s="658">
+        <v>0.9526491102175192</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.9533717172190133</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.8621745121460807</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.8178352623862608</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>3.0869565217391304</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>0.914721255818083</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="653">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="658">
+      <c r="A18" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>46.0</v>
       </c>
-      <c r="C18" t="n" s="659">
-        <v>0.8334746194835515</v>
-      </c>
-      <c r="D18" t="n" s="660">
-        <v>0.8461280875561048</v>
-      </c>
-      <c r="E18" t="n" s="661">
-        <v>0.5560455353974039</v>
-      </c>
-      <c r="F18" t="n" s="662">
-        <v>0.43186548110270245</v>
-      </c>
-      <c r="G18" t="n" s="663">
-        <v>2.9130434782608696</v>
-      </c>
-      <c r="H18" t="n" s="664">
-        <v>1.3304316251422859</v>
+      <c r="C18" t="n" s="658">
+        <v>0.954088899635391</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.9533717172190134</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.8621745121460807</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.8178352623862608</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>2.9347826086956523</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>0.928611242975073</v>
       </c>
     </row>
     <row r="19">
@@ -7203,74 +7188,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="668">
+      <c r="A21" t="s" s="667">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="682">
+      <c r="B22" t="s" s="681">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="682">
+      <c r="C22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="682">
+      <c r="D22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="682">
+      <c r="E22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="682">
+      <c r="F22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="682">
+      <c r="G22" t="s" s="681">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="678">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="683">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="C23" t="n" s="684">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="D23" t="n" s="685">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="F23" t="n" s="687">
+      <c r="A23" t="s" s="677">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.41304347826086957</v>
+      </c>
+      <c r="F23" t="n" s="686">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="G23" t="n" s="687">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="682">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="C24" t="n" s="683">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E24" t="n" s="685">
         <v>0.391304347826087</v>
       </c>
-      <c r="G23" t="n" s="688">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="678">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="683">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="C24" t="n" s="684">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="E24" t="n" s="686">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="F24" t="n" s="687">
-        <v>0.41304347826086957</v>
-      </c>
-      <c r="G24" t="n" s="688">
+      <c r="F24" t="n" s="686">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7300,7 +7285,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="690">
+      <c r="A1" t="s" s="689">
         <v>49</v>
       </c>
     </row>
@@ -7315,66 +7300,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="704">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="718">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="718">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="718">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="718">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="718">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="718">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="718">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="718">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="718">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="719">
-        <v>0.8488274454668863</v>
-      </c>
-      <c r="B6" t="n" s="720">
-        <v>0.8521161320060806</v>
-      </c>
-      <c r="C6" t="n" s="721">
-        <v>0.9395107191298344</v>
-      </c>
-      <c r="D6" t="n" s="722">
-        <v>0.3655652729256281</v>
-      </c>
-      <c r="E6" t="n" s="723">
-        <v>5.762062783217958</v>
-      </c>
-      <c r="F6" t="n" s="724">
-        <v>0.028654274340574794</v>
-      </c>
-      <c r="G6" t="n" s="725">
-        <v>3.128260869565217</v>
-      </c>
-      <c r="H6" t="n" s="726">
-        <v>0.8805712901869156</v>
-      </c>
-      <c r="I6" t="n" s="727">
-        <v>0.39989210635679273</v>
+      <c r="A6" t="n" s="718">
+        <v>0.8467047731827291</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.8635961827165787</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.926913109693671</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.4129607744883481</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>6.331173129284123</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.025671982436478086</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>2.6908212560386473</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.8863894004674516</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.42049552342442065</v>
       </c>
     </row>
     <row r="7">
@@ -7388,325 +7373,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="731">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="745">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="745">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="745">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="745">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="745">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="745">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="745">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="745">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="741">
+      <c r="A11" t="s" s="740">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.8331425867172748</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.8327316659716045</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.905801575801301</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.3835920471999103</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>4.978417886497515</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.029324048107784797</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.04559815532107971</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.42049552342442065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.7946828603867169</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.8265885717717867</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.9032089845558824</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.37336647544979945</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>4.766632627487373</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.03732007018319759</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.04450524891658157</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.39206722880888467</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.7934593704190657</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.8220031729154847</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.8910425193534856</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.3659890034197323</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>4.618077672391248</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.039815195219631346</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.04157299819690559</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.37128012572500496</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="746">
-        <v>0.838114926124916</v>
-      </c>
-      <c r="C11" t="n" s="747">
-        <v>0.8361372767582184</v>
-      </c>
-      <c r="D11" t="n" s="748">
-        <v>0.9273843627914797</v>
-      </c>
-      <c r="E11" t="n" s="749">
-        <v>0.3618229393596597</v>
-      </c>
-      <c r="F11" t="n" s="750">
-        <v>5.102669235665557</v>
-      </c>
-      <c r="G11" t="n" s="751">
-        <v>0.030677578999013477</v>
-      </c>
-      <c r="H11" t="n" s="752">
-        <v>0.058654728271459185</v>
-      </c>
-      <c r="I11" t="n" s="753">
-        <v>0.388372292361354</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="741">
+      <c r="B14" t="n" s="745">
+        <v>0.8413799277300533</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.8611359600299944</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.9155979423461681</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.43667083045333854</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>6.201288398465131</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.02655381838751565</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.05271383343080438</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.432181450896475</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="746">
-        <v>0.837764762115386</v>
-      </c>
-      <c r="C12" t="n" s="747">
-        <v>0.8387626841511666</v>
-      </c>
-      <c r="D12" t="n" s="748">
-        <v>0.91384793273191</v>
-      </c>
-      <c r="E12" t="n" s="749">
-        <v>0.36628814523353903</v>
-      </c>
-      <c r="F12" t="n" s="750">
-        <v>5.202038248624416</v>
-      </c>
-      <c r="G12" t="n" s="751">
-        <v>0.030209488044385807</v>
-      </c>
-      <c r="H12" t="n" s="752">
-        <v>0.04792308779495007</v>
-      </c>
-      <c r="I12" t="n" s="753">
-        <v>0.388372292361354</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="741">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="746">
-        <v>0.8390777929281752</v>
-      </c>
-      <c r="C13" t="n" s="747">
-        <v>0.8401762215894666</v>
-      </c>
-      <c r="D13" t="n" s="748">
-        <v>0.9194905488579255</v>
-      </c>
-      <c r="E13" t="n" s="749">
-        <v>0.3687263341732264</v>
-      </c>
-      <c r="F13" t="n" s="750">
-        <v>5.256891245752789</v>
-      </c>
-      <c r="G13" t="n" s="751">
-        <v>0.029681563852520923</v>
-      </c>
-      <c r="H13" t="n" s="752">
-        <v>0.050449913828818305</v>
-      </c>
-      <c r="I13" t="n" s="753">
-        <v>0.4059358157231683</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="741">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="746">
-        <v>0.8367011278195488</v>
-      </c>
-      <c r="C14" t="n" s="747">
-        <v>0.8371996424417183</v>
-      </c>
-      <c r="D14" t="n" s="748">
-        <v>0.907443676303773</v>
-      </c>
-      <c r="E14" t="n" s="749">
-        <v>0.3636199627862604</v>
-      </c>
-      <c r="F14" t="n" s="750">
-        <v>5.142492651725323</v>
-      </c>
-      <c r="G14" t="n" s="751">
-        <v>0.029327958525530884</v>
-      </c>
-      <c r="H14" t="n" s="752">
-        <v>0.046648010190826934</v>
-      </c>
-      <c r="I14" t="n" s="753">
-        <v>0.40445148427160044</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="741">
+      <c r="B15" t="n" s="745">
+        <v>0.8471126890356876</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.8689552023279045</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.9133447895124842</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.4532149616594761</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>6.630978243808131</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.02558321125679382</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.04311709459193527</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.43281782688361503</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="745">
+        <v>0.8345140963932437</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.8570474179951185</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.9212252260814431</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.42838061401507666</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>5.995326603935372</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.027054975808515232</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.055723860291476066</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.42081149321819306</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.8328098704027269</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.8543891027984276</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.9252442392702127</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.4231164952943063</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>5.867617872140975</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.02683780247368362</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.05761874855196646</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.4045088360514657</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="746">
-        <v>0.8415095654598043</v>
-      </c>
-      <c r="C15" t="n" s="747">
-        <v>0.8434573839535179</v>
-      </c>
-      <c r="D15" t="n" s="748">
-        <v>0.9194009727065057</v>
-      </c>
-      <c r="E15" t="n" s="749">
-        <v>0.3744803343618257</v>
-      </c>
-      <c r="F15" t="n" s="750">
-        <v>5.388036850636701</v>
-      </c>
-      <c r="G15" t="n" s="751">
-        <v>0.030025175613345285</v>
-      </c>
-      <c r="H15" t="n" s="752">
-        <v>0.05550557828190301</v>
-      </c>
-      <c r="I15" t="n" s="753">
-        <v>0.4059358157231683</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="741">
+      <c r="B18" t="n" s="745">
+        <v>0.8361176417959411</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.8525196341367681</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.9063081790196054</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.41947221941513085</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>5.780563596698461</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.026411354350289882</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.05313242625673327</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.432181450896475</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="746">
-        <v>0.8461443400889768</v>
-      </c>
-      <c r="C16" t="n" s="747">
-        <v>0.851815795916286</v>
-      </c>
-      <c r="D16" t="n" s="748">
-        <v>0.9208375047712059</v>
-      </c>
-      <c r="E16" t="n" s="749">
-        <v>0.389762559100625</v>
-      </c>
-      <c r="F16" t="n" s="750">
-        <v>5.7483576011588156</v>
-      </c>
-      <c r="G16" t="n" s="751">
-        <v>0.02953601994296174</v>
-      </c>
-      <c r="H16" t="n" s="752">
-        <v>0.048110284376903546</v>
-      </c>
-      <c r="I16" t="n" s="753">
-        <v>0.4059931675030336</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="741">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="746">
-        <v>0.8075997762029093</v>
-      </c>
-      <c r="C17" t="n" s="747">
-        <v>0.8211969268592758</v>
-      </c>
-      <c r="D17" t="n" s="748">
-        <v>0.9155199076787528</v>
-      </c>
-      <c r="E17" t="n" s="749">
-        <v>0.33788208524757507</v>
-      </c>
-      <c r="F17" t="n" s="750">
-        <v>4.592745037513786</v>
-      </c>
-      <c r="G17" t="n" s="751">
-        <v>0.03894358408939685</v>
-      </c>
-      <c r="H17" t="n" s="752">
-        <v>0.05640110764977331</v>
-      </c>
-      <c r="I17" t="n" s="753">
-        <v>0.3448164608691645</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="741">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="746">
-        <v>0.8062741110679147</v>
-      </c>
-      <c r="C18" t="n" s="747">
-        <v>0.8176616875821092</v>
-      </c>
-      <c r="D18" t="n" s="748">
-        <v>0.9107954495768412</v>
-      </c>
-      <c r="E18" t="n" s="749">
-        <v>0.3325576630641183</v>
-      </c>
-      <c r="F18" t="n" s="750">
-        <v>4.484310931364534</v>
-      </c>
-      <c r="G18" t="n" s="751">
-        <v>0.040814269866377345</v>
-      </c>
-      <c r="H18" t="n" s="752">
-        <v>0.055692038317683656</v>
-      </c>
-      <c r="I18" t="n" s="753">
-        <v>0.3322189540289661</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="741">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="746">
-        <v>0.8420340351716713</v>
-      </c>
-      <c r="C19" t="n" s="747">
-        <v>0.8488935979875286</v>
-      </c>
-      <c r="D19" t="n" s="748">
-        <v>0.939814068749633</v>
-      </c>
-      <c r="E19" t="n" s="749">
-        <v>0.3843145214128289</v>
-      </c>
-      <c r="F19" t="n" s="750">
-        <v>5.617853291996631</v>
-      </c>
-      <c r="G19" t="n" s="751">
-        <v>0.030136768701112995</v>
-      </c>
-      <c r="H19" t="n" s="752">
-        <v>0.0582775600386606</v>
-      </c>
-      <c r="I19" t="n" s="753">
-        <v>0.4059358157231683</v>
+      <c r="B19" t="n" s="745">
+        <v>0.8402896212503514</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.8592634477449161</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.9043580960968965</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.43284432348836216</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>6.105474618900058</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.026126542105972633</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.046544114418082164</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.43388176516554283</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="741">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="746">
-        <v>0.8382218216756914</v>
-      </c>
-      <c r="C20" t="n" s="747">
-        <v>0.844422367549825</v>
-      </c>
-      <c r="D20" t="n" s="748">
-        <v>0.9415407316794642</v>
-      </c>
-      <c r="E20" t="n" s="749">
-        <v>0.3761981845166229</v>
-      </c>
-      <c r="F20" t="n" s="750">
-        <v>5.4276591965767205</v>
-      </c>
-      <c r="G20" t="n" s="751">
-        <v>0.030542123183810017</v>
-      </c>
-      <c r="H20" t="n" s="752">
-        <v>0.061221630360222316</v>
-      </c>
-      <c r="I20" t="n" s="753">
-        <v>0.388372292361354</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7715,595 +7676,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="756">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="770">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="770">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="770">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="770">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="770">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="770">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C24" t="n" s="772">
+        <v>0.8411629024581756</v>
+      </c>
+      <c r="D24" t="n" s="773">
+        <v>0.8236409734871568</v>
+      </c>
+      <c r="E24" t="n" s="774">
+        <v>0.8322656275632292</v>
+      </c>
+      <c r="F24" t="n" s="775">
+        <v>0.8212359380427025</v>
+      </c>
+      <c r="G24" t="n" s="776">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="H24" t="n" s="777">
+        <v>0.5012062743707415</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.9059527021428516</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.8696458721546021</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.8821832197863955</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.8436367356443701</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>1.8478260869565217</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>1.9202707136043526</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.9284532820843238</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.9028371558753849</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.9277959503598429</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.8715791730377215</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>2.217391304347826</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>2.1386708590800647</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.5481581906234418</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.5848392610118827</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.5342503773160892</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.4686542521154046</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>3.8043478260869565</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>0.8331883931925148</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C28" t="n" s="772">
+        <v>0.48158242854027566</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.5104071316132478</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.46394422620745773</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.37572984782435187</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>4.086956521739131</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>1.0072203103706698</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.6540440373482913</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.6221369864099072</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.5573328235116373</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.5313391657278757</v>
+      </c>
+      <c r="G29" t="n" s="776">
+        <v>2.760869565217391</v>
+      </c>
+      <c r="H29" t="n" s="777">
+        <v>1.4327096722054047</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C30" t="n" s="772">
+        <v>0.6550752354140791</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.6458202829766557</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.5731843085461777</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.5427875029642593</v>
+      </c>
+      <c r="G30" t="n" s="776">
+        <v>2.9130434782608696</v>
+      </c>
+      <c r="H30" t="n" s="777">
+        <v>1.3304316251422859</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C31" t="n" s="772">
+        <v>0.6125047260097249</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.6622158984624952</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.6394547598693466</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.5329211590188194</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>3.0869565217391304</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>0.914721255818083</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="771">
+        <v>46.0</v>
+      </c>
+      <c r="C32" t="n" s="772">
+        <v>0.5599116935529876</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.6020547350680994</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.5814405403670136</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.47192429656231244</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>2.9347826086956523</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>0.928611242975073</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="757">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="771">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="771">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="771">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="771">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="771">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="771">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="771">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="767">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="781">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="795">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="795">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="795">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="795">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="795">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="795">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="796">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="C37" t="n" s="797">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="D37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="796">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="C38" t="n" s="797">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="D38" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="799">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="F38" t="n" s="800">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="G38" t="n" s="801">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="H38" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C25" t="n" s="773">
-        <v>0.6255920765415648</v>
-      </c>
-      <c r="D25" t="n" s="774">
-        <v>0.6755565325146503</v>
-      </c>
-      <c r="E25" t="n" s="775">
-        <v>0.6433073411124568</v>
-      </c>
-      <c r="F25" t="n" s="776">
-        <v>0.5626510965957042</v>
-      </c>
-      <c r="G25" t="n" s="777">
-        <v>3.8043478260869565</v>
-      </c>
-      <c r="H25" t="n" s="778">
-        <v>0.8331883931925148</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="767">
+      <c r="B40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.32608695652173914</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.45652173913043476</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C26" t="n" s="773">
-        <v>0.6110209397258658</v>
-      </c>
-      <c r="D26" t="n" s="774">
-        <v>0.6510144780649659</v>
-      </c>
-      <c r="E26" t="n" s="775">
-        <v>0.6473738047647187</v>
-      </c>
-      <c r="F26" t="n" s="776">
-        <v>0.5314443036384512</v>
-      </c>
-      <c r="G26" t="n" s="777">
-        <v>4.086956521739131</v>
-      </c>
-      <c r="H26" t="n" s="778">
-        <v>1.0072203103706698</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="767">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C27" t="n" s="773">
-        <v>0.5927896697511179</v>
-      </c>
-      <c r="D27" t="n" s="774">
-        <v>0.6376134910989515</v>
-      </c>
-      <c r="E27" t="n" s="775">
-        <v>0.627402059666558</v>
-      </c>
-      <c r="F27" t="n" s="776">
-        <v>0.5067475008009446</v>
-      </c>
-      <c r="G27" t="n" s="777">
-        <v>3.6956521739130435</v>
-      </c>
-      <c r="H27" t="n" s="778">
-        <v>1.0513391506368608</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="767">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C28" t="n" s="773">
-        <v>0.6294353739220702</v>
-      </c>
-      <c r="D28" t="n" s="774">
-        <v>0.6656795754316664</v>
-      </c>
-      <c r="E28" t="n" s="775">
-        <v>0.6696430206385424</v>
-      </c>
-      <c r="F28" t="n" s="776">
-        <v>0.5263869328429901</v>
-      </c>
-      <c r="G28" t="n" s="777">
-        <v>3.9347826086956523</v>
-      </c>
-      <c r="H28" t="n" s="778">
-        <v>1.3064315079728268</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="767">
+      <c r="B41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.32608695652173914</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.5</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="796">
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="C42" t="n" s="797">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.043478260869565216</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="796">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="C43" t="n" s="797">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.41304347826086957</v>
+      </c>
+      <c r="G43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C29" t="n" s="773">
-        <v>0.5624534565237136</v>
-      </c>
-      <c r="D29" t="n" s="774">
-        <v>0.6059878527922878</v>
-      </c>
-      <c r="E29" t="n" s="775">
-        <v>0.5869468878764263</v>
-      </c>
-      <c r="F29" t="n" s="776">
-        <v>0.48501715387505195</v>
-      </c>
-      <c r="G29" t="n" s="777">
-        <v>3.0869565217391304</v>
-      </c>
-      <c r="H29" t="n" s="778">
-        <v>0.914721255818083</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="767">
+      <c r="B44" t="n" s="796">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="C44" t="n" s="797">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D44" t="n" s="798">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="E44" t="n" s="799">
+        <v>0.41304347826086957</v>
+      </c>
+      <c r="F44" t="n" s="800">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="G44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C30" t="n" s="773">
-        <v>0.4914760051618982</v>
-      </c>
-      <c r="D30" t="n" s="774">
-        <v>0.521992354657264</v>
-      </c>
-      <c r="E30" t="n" s="775">
-        <v>0.5015476849553578</v>
-      </c>
-      <c r="F30" t="n" s="776">
-        <v>0.40522462619880834</v>
-      </c>
-      <c r="G30" t="n" s="777">
-        <v>2.9347826086956523</v>
-      </c>
-      <c r="H30" t="n" s="778">
-        <v>0.928611242975073</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="767">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C31" t="n" s="773">
-        <v>0.8699699136428807</v>
-      </c>
-      <c r="D31" t="n" s="774">
-        <v>0.8071423455289709</v>
-      </c>
-      <c r="E31" t="n" s="775">
-        <v>0.8128837438854924</v>
-      </c>
-      <c r="F31" t="n" s="776">
-        <v>0.797538288419797</v>
-      </c>
-      <c r="G31" t="n" s="777">
-        <v>1.8478260869565217</v>
-      </c>
-      <c r="H31" t="n" s="778">
-        <v>1.9202707136043526</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="767">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C32" t="n" s="773">
-        <v>0.8934590563475792</v>
-      </c>
-      <c r="D32" t="n" s="774">
-        <v>0.8364068996907205</v>
-      </c>
-      <c r="E32" t="n" s="775">
-        <v>0.8457921830086123</v>
-      </c>
-      <c r="F32" t="n" s="776">
-        <v>0.8229379787743056</v>
-      </c>
-      <c r="G32" t="n" s="777">
-        <v>2.217391304347826</v>
-      </c>
-      <c r="H32" t="n" s="778">
-        <v>2.1386708590800647</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="767">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C33" t="n" s="773">
-        <v>0.5937925259375075</v>
-      </c>
-      <c r="D33" t="n" s="774">
-        <v>0.551936335148731</v>
-      </c>
-      <c r="E33" t="n" s="775">
-        <v>0.48612860689492526</v>
-      </c>
-      <c r="F33" t="n" s="776">
-        <v>0.4722595237717546</v>
-      </c>
-      <c r="G33" t="n" s="777">
-        <v>2.760869565217391</v>
-      </c>
-      <c r="H33" t="n" s="778">
-        <v>1.4327096722054047</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="767">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="772">
-        <v>46.0</v>
-      </c>
-      <c r="C34" t="n" s="773">
-        <v>0.6167199954719852</v>
-      </c>
-      <c r="D34" t="n" s="774">
-        <v>0.5965460547596245</v>
-      </c>
-      <c r="E34" t="n" s="775">
-        <v>0.5276620521821671</v>
-      </c>
-      <c r="F34" t="n" s="776">
-        <v>0.5091177025804104</v>
-      </c>
-      <c r="G34" t="n" s="777">
-        <v>2.9130434782608696</v>
-      </c>
-      <c r="H34" t="n" s="778">
-        <v>1.3304316251422859</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="782">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="796">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="796">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="796">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="796">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="796">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="796">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="796">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="792">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="797">
+      <c r="B45" t="n" s="796">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.021739130434782608</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="798">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D39" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="800">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="F39" t="n" s="801">
-        <v>0.45652173913043476</v>
-      </c>
-      <c r="G39" t="n" s="802">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="H39" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="792">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="G40" t="n" s="802">
-        <v>0.5</v>
-      </c>
-      <c r="H40" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="792">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="797">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C41" t="n" s="798">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.5</v>
-      </c>
-      <c r="G41" t="n" s="802">
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="H41" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="792">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="797">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C42" t="n" s="798">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="D42" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E42" t="n" s="800">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="F42" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n" s="802">
-        <v>0.5434782608695652</v>
-      </c>
-      <c r="H42" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="792">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="797">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C43" t="n" s="798">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D43" t="n" s="799">
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="E43" t="n" s="800">
-        <v>0.41304347826086957</v>
-      </c>
-      <c r="F43" t="n" s="801">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="G43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="792">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="797">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="C44" t="n" s="798">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="G44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="792">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="797">
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="C45" t="n" s="798">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="D45" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="H45" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="792">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="797">
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="C46" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="H46" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="792">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="797">
-        <v>0.15217391304347827</v>
-      </c>
-      <c r="C47" t="n" s="798">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="G47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="792">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="797">
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="C48" t="n" s="798">
-        <v>0.021739130434782608</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="E48" t="n" s="800">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="F48" t="n" s="801">
-        <v>0.41304347826086957</v>
-      </c>
-      <c r="G48" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="803">
+      <c r="H45" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
